--- a/biology/Histoire de la zoologie et de la botanique/Edward_Topsell/Edward_Topsell.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Edward_Topsell/Edward_Topsell.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Edward Topsell est un naturaliste britannique, mort vers 1625 ou vers 1638.
 </t>
@@ -511,7 +523,9 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études au Crist’s College de Cambridge en 1587 et obtient son Bachelor of Arts vers 1591-1592 puis plus tard son Master of Arts. Il se marie avec Mary Seaton le 12 août 1612. en 1596, il est ordonné prêtre et entre dans la cure d’East Hoathly en 1596. Il vit à Datchworth de 1598 à 1601, devient curé à Saint Botolph à Aldersgate de 1604 à 1638, vicaire de Syresham de 1602 à 1608, vicaire de Mayfield de 1605 à 1606, d’East Grinstead de 1610 à 1616, chapelain d’Hartfield en 1610.
 Il est l’auteur de The Reward of Religion... (1596), de The Householder or Perfect Man (1610), The History of Four-Footed Beastes and Serpents Describing at Large Their True and Lively Figure, their Several names, Conditions, Kinds, Virtues... (1607, réédité en 1658), The History of Serpents (1608).
